--- a/Code/Results/Cases/Case_0_229/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_229/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.07680125192803189</v>
+        <v>0.02453504007225149</v>
       </c>
       <c r="D2">
-        <v>0.07582097821528322</v>
+        <v>0.02595913159737506</v>
       </c>
       <c r="E2">
-        <v>0.165073850174899</v>
+        <v>0.1083956125688772</v>
       </c>
       <c r="F2">
-        <v>0.2604892826975842</v>
+        <v>0.4011173264326615</v>
       </c>
       <c r="G2">
-        <v>0.1590790573401648</v>
+        <v>0.2494694137112177</v>
       </c>
       <c r="H2">
-        <v>0.1524088315713215</v>
+        <v>0.4299996397747279</v>
       </c>
       <c r="I2">
-        <v>0.1781528138123392</v>
+        <v>0.294091890236551</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.663225290276102</v>
+        <v>1.187768794381611</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.069141466457303</v>
+        <v>0.3730441353413028</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.6072806497113987</v>
+        <v>1.276956331357368</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0669133783789988</v>
+        <v>0.02138906953582875</v>
       </c>
       <c r="D3">
-        <v>0.06659852849529813</v>
+        <v>0.02290482479835276</v>
       </c>
       <c r="E3">
-        <v>0.1447095114630841</v>
+        <v>0.1051323248934608</v>
       </c>
       <c r="F3">
-        <v>0.243442623881478</v>
+        <v>0.402784158121726</v>
       </c>
       <c r="G3">
-        <v>0.149858889103939</v>
+        <v>0.2521603659494431</v>
       </c>
       <c r="H3">
-        <v>0.154672532854768</v>
+        <v>0.4354858015413043</v>
       </c>
       <c r="I3">
-        <v>0.1679059084732941</v>
+        <v>0.2960398840774836</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3.205661861154681</v>
+        <v>1.036841494584053</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.9278744222703565</v>
+        <v>0.3303842439551445</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.5920915494560859</v>
+        <v>1.293880245128435</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.06084340425019263</v>
+        <v>0.0194513134007579</v>
       </c>
       <c r="D4">
-        <v>0.06092667056164203</v>
+        <v>0.02102014890999726</v>
       </c>
       <c r="E4">
-        <v>0.1327710625291836</v>
+        <v>0.1032786869389888</v>
       </c>
       <c r="F4">
-        <v>0.233893163137445</v>
+        <v>0.4042073267939728</v>
       </c>
       <c r="G4">
-        <v>0.1450518432770025</v>
+        <v>0.2541391123286942</v>
       </c>
       <c r="H4">
-        <v>0.156600474843323</v>
+        <v>0.4391444145723113</v>
       </c>
       <c r="I4">
-        <v>0.1622976567847019</v>
+        <v>0.2975333082031355</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.924553281693449</v>
+        <v>0.9437758093563389</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.8414827892271788</v>
+        <v>0.3041870526631314</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.5856934834676792</v>
+        <v>1.305562003549809</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.05836945188197262</v>
+        <v>0.0186601686363872</v>
       </c>
       <c r="D5">
-        <v>0.05861257611354631</v>
+        <v>0.02024984000026819</v>
       </c>
       <c r="E5">
-        <v>0.1280351987377273</v>
+        <v>0.1025606987450729</v>
       </c>
       <c r="F5">
-        <v>0.2302182311098662</v>
+        <v>0.4048875532774616</v>
       </c>
       <c r="G5">
-        <v>0.1432938164325535</v>
+        <v>0.2550272263412197</v>
       </c>
       <c r="H5">
-        <v>0.1575152249923661</v>
+        <v>0.4407081995181557</v>
       </c>
       <c r="I5">
-        <v>0.1601737079907437</v>
+        <v>0.2982164714525162</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.809929729479876</v>
+        <v>0.9057540600553011</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.8063461537747116</v>
+        <v>0.293510857562616</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.5837800554332517</v>
+        <v>1.310646015819373</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.05795861097045929</v>
+        <v>0.01852871077925045</v>
       </c>
       <c r="D6">
-        <v>0.05822814310472069</v>
+        <v>0.02012179422303007</v>
       </c>
       <c r="E6">
-        <v>0.127256246730667</v>
+        <v>0.1024437252344832</v>
       </c>
       <c r="F6">
-        <v>0.2296206907705809</v>
+        <v>0.4050065535628775</v>
       </c>
       <c r="G6">
-        <v>0.1430136362143273</v>
+        <v>0.2551796250344438</v>
       </c>
       <c r="H6">
-        <v>0.1576747403202887</v>
+        <v>0.4409722638257847</v>
       </c>
       <c r="I6">
-        <v>0.159830485267932</v>
+        <v>0.2983344091048608</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.790891583994238</v>
+        <v>0.8994348177621987</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.8005153681201307</v>
+        <v>0.29173805576945</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.5835030349390706</v>
+        <v>1.311509730945886</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.06081004212607155</v>
+        <v>0.01944064973363169</v>
       </c>
       <c r="D7">
-        <v>0.06089547363719561</v>
+        <v>0.0210097694457545</v>
       </c>
       <c r="E7">
-        <v>0.1327066867220346</v>
+        <v>0.1032688529852201</v>
       </c>
       <c r="F7">
-        <v>0.2338427430682728</v>
+        <v>0.4042160948826279</v>
       </c>
       <c r="G7">
-        <v>0.1450273384385881</v>
+        <v>0.2541507591587973</v>
       </c>
       <c r="H7">
-        <v>0.1566122967362915</v>
+        <v>0.4391652093725753</v>
       </c>
       <c r="I7">
-        <v>0.1622683720940614</v>
+        <v>0.297542219859448</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.92300774606332</v>
+        <v>0.943263422689455</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.8410086699925685</v>
+        <v>0.3040430718453493</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.5856649236310147</v>
+        <v>1.305629259244284</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.07339122558943245</v>
+        <v>0.02345160506169464</v>
       </c>
       <c r="D8">
-        <v>0.0726427142716517</v>
+        <v>0.02490797291308411</v>
       </c>
       <c r="E8">
-        <v>0.1579268141234493</v>
+        <v>0.1072390839358945</v>
       </c>
       <c r="F8">
-        <v>0.2544125192835764</v>
+        <v>0.4016089410628041</v>
       </c>
       <c r="G8">
-        <v>0.1557140793319931</v>
+        <v>0.250329286590059</v>
       </c>
       <c r="H8">
-        <v>0.1530738704323298</v>
+        <v>0.4318310162744794</v>
       </c>
       <c r="I8">
-        <v>0.17447143680781</v>
+        <v>0.2947017295349674</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.505473170115977</v>
+        <v>1.135812805101523</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.020349003204579</v>
+        <v>0.3583359925045428</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.6014095241792461</v>
+        <v>1.282523343268792</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.09810718432814269</v>
+        <v>0.03126693897377208</v>
       </c>
       <c r="D9">
-        <v>0.09562858692803644</v>
+        <v>0.03247633163179842</v>
       </c>
       <c r="E9">
-        <v>0.2124985476182317</v>
+        <v>0.1162311213030449</v>
       </c>
       <c r="F9">
-        <v>0.3026994291521774</v>
+        <v>0.3996793260392124</v>
       </c>
       <c r="G9">
-        <v>0.1841102911274746</v>
+        <v>0.2454413810785638</v>
       </c>
       <c r="H9">
-        <v>0.1506983807438189</v>
+        <v>0.4197537116403467</v>
       </c>
       <c r="I9">
-        <v>0.2043185307583961</v>
+        <v>0.2914996847947684</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4.647853688244425</v>
+        <v>1.510158282307771</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.375702404448532</v>
+        <v>0.4647642679878174</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.6575385482886276</v>
+        <v>1.24749143031687</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.116346006383651</v>
+        <v>0.03697670434927147</v>
       </c>
       <c r="D10">
-        <v>0.1125216079119582</v>
+        <v>0.03798822899842946</v>
       </c>
       <c r="E10">
-        <v>0.2566560995281222</v>
+        <v>0.123595882254655</v>
       </c>
       <c r="F10">
-        <v>0.3440125754508401</v>
+        <v>0.4002184817530861</v>
       </c>
       <c r="G10">
-        <v>0.2104846156651874</v>
+        <v>0.2434604149440531</v>
       </c>
       <c r="H10">
-        <v>0.1521687325257588</v>
+        <v>0.4122902402783666</v>
       </c>
       <c r="I10">
-        <v>0.230583560438248</v>
+        <v>0.2906034238119872</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>5.489548328381716</v>
+        <v>1.783100990444893</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.640409800516707</v>
+        <v>0.542928115475334</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.7171508873033758</v>
+        <v>1.228075076353932</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1246734417750588</v>
+        <v>0.03956693825264779</v>
       </c>
       <c r="D11">
-        <v>0.1202166786077612</v>
+        <v>0.04048474807760272</v>
       </c>
       <c r="E11">
-        <v>0.2778573746575432</v>
+        <v>0.1271159174210226</v>
       </c>
       <c r="F11">
-        <v>0.3643098709450499</v>
+        <v>0.4008922072418315</v>
       </c>
       <c r="G11">
-        <v>0.2239123393611138</v>
+        <v>0.2429134581349217</v>
       </c>
       <c r="H11">
-        <v>0.1536392182338062</v>
+        <v>0.4092019933884927</v>
       </c>
       <c r="I11">
-        <v>0.2436472953826794</v>
+        <v>0.2905146210257001</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>5.873538132452154</v>
+        <v>1.906794490720188</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.76195955459599</v>
+        <v>0.5784801611955004</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.7489695737840378</v>
+        <v>1.220626616020596</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.127832318634006</v>
+        <v>0.04054672404106441</v>
       </c>
       <c r="D12">
-        <v>0.1231328583617142</v>
+        <v>0.04142850367013295</v>
       </c>
       <c r="E12">
-        <v>0.2860670112403838</v>
+        <v>0.1284736603205303</v>
       </c>
       <c r="F12">
-        <v>0.3722332679845337</v>
+        <v>0.4012092107631773</v>
       </c>
       <c r="G12">
-        <v>0.2292236097251958</v>
+        <v>0.2427576386998922</v>
       </c>
       <c r="H12">
-        <v>0.1543206427404371</v>
+        <v>0.4080767735279451</v>
       </c>
       <c r="I12">
-        <v>0.2487701878540065</v>
+        <v>0.2905270625453795</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>6.019152690640453</v>
+        <v>1.953564125171624</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.808180672849275</v>
+        <v>0.5919418548917008</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.7617583289830208</v>
+        <v>1.218006072339676</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1271517373284894</v>
+        <v>0.04033575843199344</v>
       </c>
       <c r="D13">
-        <v>0.1225046956073328</v>
+        <v>0.04122532208874929</v>
       </c>
       <c r="E13">
-        <v>0.284290506580291</v>
+        <v>0.1281801380232466</v>
       </c>
       <c r="F13">
-        <v>0.3705159199275982</v>
+        <v>0.4011381821154174</v>
       </c>
       <c r="G13">
-        <v>0.2280693110575953</v>
+        <v>0.2427889097217957</v>
       </c>
       <c r="H13">
-        <v>0.1541681892501074</v>
+        <v>0.4083171409784399</v>
       </c>
       <c r="I13">
-        <v>0.2476587972651672</v>
+        <v>0.2905223307708127</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>5.987782021625264</v>
+        <v>1.943494624843765</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.798217046031667</v>
+        <v>0.5890426927143722</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.7589700775204022</v>
+        <v>1.218561541373575</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1249332086715356</v>
+        <v>0.03964756773603995</v>
       </c>
       <c r="D14">
-        <v>0.1204565454753208</v>
+        <v>0.04056242426105428</v>
       </c>
       <c r="E14">
-        <v>0.2785290283439394</v>
+        <v>0.127227120961507</v>
       </c>
       <c r="F14">
-        <v>0.3649568529289695</v>
+        <v>0.4009170456627089</v>
       </c>
       <c r="G14">
-        <v>0.2243446367420745</v>
+        <v>0.2428996085197426</v>
       </c>
       <c r="H14">
-        <v>0.1536927268119683</v>
+        <v>0.4091085338399481</v>
       </c>
       <c r="I14">
-        <v>0.244065139874948</v>
+        <v>0.2905147201030545</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>5.885513512502257</v>
+        <v>1.91064368428556</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.76575814787499</v>
+        <v>0.5795876868398153</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.7500065056153034</v>
+        <v>1.220407007835377</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1235750397347459</v>
+        <v>0.03922588902031521</v>
       </c>
       <c r="D15">
-        <v>0.1192023068279298</v>
+        <v>0.04015616722911375</v>
       </c>
       <c r="E15">
-        <v>0.2750242063522563</v>
+        <v>0.1266466088080449</v>
       </c>
       <c r="F15">
-        <v>0.3615833105807269</v>
+        <v>0.4007896594413083</v>
       </c>
       <c r="G15">
-        <v>0.2220933062439912</v>
+        <v>0.2429741065654412</v>
       </c>
       <c r="H15">
-        <v>0.1534180048501739</v>
+        <v>0.4095990480295981</v>
       </c>
       <c r="I15">
-        <v>0.2418873130138621</v>
+        <v>0.2905160641316229</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>5.822899413799917</v>
+        <v>1.890512279816164</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.745902184407697</v>
+        <v>0.5737960694848141</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.7446143628519479</v>
+        <v>1.221563487971352</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1158024925009471</v>
+        <v>0.03680727806273865</v>
       </c>
       <c r="D16">
-        <v>0.1120189866523447</v>
+        <v>0.03782485182348694</v>
       </c>
       <c r="E16">
-        <v>0.2552947127996603</v>
+        <v>0.1233692874331069</v>
       </c>
       <c r="F16">
-        <v>0.3427181211018677</v>
+        <v>0.4001830967397595</v>
       </c>
       <c r="G16">
-        <v>0.2096376049237634</v>
+        <v>0.2435033187066011</v>
       </c>
       <c r="H16">
-        <v>0.1520895440435126</v>
+        <v>0.4124982488623132</v>
       </c>
       <c r="I16">
-        <v>0.2297535649798235</v>
+        <v>0.2906156625909517</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>5.464479805767041</v>
+        <v>1.775007633464497</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.632491539079382</v>
+        <v>0.540604572235452</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.7151713965678681</v>
+        <v>1.228589787822301</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1110428369239855</v>
+        <v>0.03532166803694281</v>
       </c>
       <c r="D17">
-        <v>0.1076154070778017</v>
+        <v>0.03639183912289923</v>
       </c>
       <c r="E17">
-        <v>0.2434909512040235</v>
+        <v>0.1214025015255373</v>
       </c>
       <c r="F17">
-        <v>0.3315445702502871</v>
+        <v>0.3999209193767399</v>
       </c>
       <c r="G17">
-        <v>0.2023770442181316</v>
+        <v>0.2439189538100877</v>
       </c>
       <c r="H17">
-        <v>0.1514863045554478</v>
+        <v>0.4143554943009065</v>
       </c>
       <c r="I17">
-        <v>0.2226063376470861</v>
+        <v>0.2907585938196036</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>5.244915217000255</v>
+        <v>1.70402695281831</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.563228488052019</v>
+        <v>0.5202411021548272</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.6983569812456238</v>
+        <v>1.233255411479433</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1083080113434391</v>
+        <v>0.03446651276718171</v>
       </c>
       <c r="D18">
-        <v>0.1050835111981741</v>
+        <v>0.03556658841002047</v>
       </c>
       <c r="E18">
-        <v>0.2368052111470504</v>
+        <v>0.120287215606993</v>
       </c>
       <c r="F18">
-        <v>0.3252580346697016</v>
+        <v>0.3998104348895737</v>
       </c>
       <c r="G18">
-        <v>0.1983342162652306</v>
+        <v>0.2441913327083256</v>
       </c>
       <c r="H18">
-        <v>0.1512141928291868</v>
+        <v>0.4154526160887784</v>
       </c>
       <c r="I18">
-        <v>0.2185994588642934</v>
+        <v>0.2908708090126808</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>5.118727773171372</v>
+        <v>1.663156721650296</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.523494921414212</v>
+        <v>0.5085281160198463</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.6891241488674638</v>
+        <v>1.236069177464572</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.107382496343476</v>
+        <v>0.03417685802006076</v>
       </c>
       <c r="D19">
-        <v>0.1042263925127287</v>
+        <v>0.03528699936131829</v>
       </c>
       <c r="E19">
-        <v>0.2345586952771797</v>
+        <v>0.1199123283874712</v>
       </c>
       <c r="F19">
-        <v>0.3231529841692549</v>
+        <v>0.3997799423903956</v>
       </c>
       <c r="G19">
-        <v>0.1969876594775641</v>
+        <v>0.2442892664163807</v>
       </c>
       <c r="H19">
-        <v>0.1511346441823278</v>
+        <v>0.4158290404558045</v>
       </c>
       <c r="I19">
-        <v>0.2172602088971303</v>
+        <v>0.2909139500938771</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>5.076018705297088</v>
+        <v>1.649311291672973</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.5100589310548</v>
+        <v>0.5045622328857036</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.6860714938973587</v>
+        <v>1.237044205914941</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1115492128356124</v>
+        <v>0.03547988363133925</v>
       </c>
       <c r="D20">
-        <v>0.1080840746115967</v>
+        <v>0.03654449173413354</v>
       </c>
       <c r="E20">
-        <v>0.2447366265350652</v>
+        <v>0.1216102150457701</v>
       </c>
       <c r="F20">
-        <v>0.3327193566380089</v>
+        <v>0.3999446544250063</v>
       </c>
       <c r="G20">
-        <v>0.2031360056381146</v>
+        <v>0.2438712579265996</v>
       </c>
       <c r="H20">
-        <v>0.1515427078456995</v>
+        <v>0.4141547973319604</v>
       </c>
       <c r="I20">
-        <v>0.2233562979599455</v>
+        <v>0.2907402716203933</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>5.268277527332884</v>
+        <v>1.71158754452432</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.57059061236663</v>
+        <v>0.5224088782311753</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.7001010872634623</v>
+        <v>1.232745263133125</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.125584687256719</v>
+        <v>0.03984973571370176</v>
       </c>
       <c r="D21">
-        <v>0.1210580703020412</v>
+        <v>0.04075717790924216</v>
       </c>
       <c r="E21">
-        <v>0.2802162203463965</v>
+        <v>0.1275063696526288</v>
       </c>
       <c r="F21">
-        <v>0.3665830716940093</v>
+        <v>0.4009803173302871</v>
       </c>
       <c r="G21">
-        <v>0.225432343295644</v>
+        <v>0.2428656983724551</v>
       </c>
       <c r="H21">
-        <v>0.1538289228681364</v>
+        <v>0.4088748813526024</v>
       </c>
       <c r="I21">
-        <v>0.2451157799944781</v>
+        <v>0.2905157035681611</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>5.91554626004779</v>
+        <v>1.920294735667994</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.775286627419902</v>
+        <v>0.5823648838380109</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.7526187170859231</v>
+        <v>1.219859513077367</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1347900489932385</v>
+        <v>0.04269937145713243</v>
       </c>
       <c r="D22">
-        <v>0.129550673589975</v>
+        <v>0.04350093056825699</v>
       </c>
       <c r="E22">
-        <v>0.3044713472071123</v>
+        <v>0.1315044674942385</v>
       </c>
       <c r="F22">
-        <v>0.3901087200767677</v>
+        <v>0.4020179788831513</v>
       </c>
       <c r="G22">
-        <v>0.2413352163424847</v>
+        <v>0.2425076994561692</v>
       </c>
       <c r="H22">
-        <v>0.1560540916192252</v>
+        <v>0.4056820149454268</v>
       </c>
       <c r="I22">
-        <v>0.2603703970901279</v>
+        <v>0.290637558384212</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>6.339799571309015</v>
+        <v>2.056285226371017</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.910207254955679</v>
+        <v>0.6215430545728822</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.7912866553741367</v>
+        <v>1.212604293981812</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1298736374210705</v>
+        <v>0.04117906120801251</v>
       </c>
       <c r="D23">
-        <v>0.1250165306823021</v>
+        <v>0.04203742500693863</v>
       </c>
       <c r="E23">
-        <v>0.2914208407600256</v>
+        <v>0.1293572525543496</v>
       </c>
       <c r="F23">
-        <v>0.3774177641213114</v>
+        <v>0.4014310591848727</v>
       </c>
       <c r="G23">
-        <v>0.2327184727486511</v>
+        <v>0.2426712728896234</v>
       </c>
       <c r="H23">
-        <v>0.1547963319031851</v>
+        <v>0.4073624813374863</v>
       </c>
       <c r="I23">
-        <v>0.252128727984875</v>
+        <v>0.290547874108519</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>6.113238479614779</v>
+        <v>1.98374316379784</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.838082696854826</v>
+        <v>0.6006336454195633</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.7702290053750005</v>
+        <v>1.216369493083036</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1113202754954017</v>
+        <v>0.03540835765370787</v>
       </c>
       <c r="D24">
-        <v>0.1078721907575328</v>
+        <v>0.03647548182216553</v>
       </c>
       <c r="E24">
-        <v>0.2441731455610281</v>
+        <v>0.1215162596814281</v>
       </c>
       <c r="F24">
-        <v>0.3321878096629192</v>
+        <v>0.3999337984703573</v>
       </c>
       <c r="G24">
-        <v>0.2027924715665179</v>
+        <v>0.2438927171477445</v>
       </c>
       <c r="H24">
-        <v>0.1515169759442969</v>
+        <v>0.414245440962155</v>
       </c>
       <c r="I24">
-        <v>0.2230169238645345</v>
+        <v>0.2907484615233678</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>5.257715295963067</v>
+        <v>1.708169595454592</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.567261928194469</v>
+        <v>0.5214288445732365</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.6993112298876412</v>
+        <v>1.232975491856493</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.09141086563256806</v>
+        <v>0.02915821729381207</v>
       </c>
       <c r="D25">
-        <v>0.08941215101925337</v>
+        <v>0.03043726019056692</v>
       </c>
       <c r="E25">
-        <v>0.19709476346884</v>
+        <v>0.1136670203445149</v>
       </c>
       <c r="F25">
-        <v>0.2886870186274564</v>
+        <v>0.399858872300122</v>
       </c>
       <c r="G25">
-        <v>0.1755349443521936</v>
+        <v>0.2464824704359856</v>
       </c>
       <c r="H25">
-        <v>0.1508094117967858</v>
+        <v>0.4227737053531726</v>
       </c>
       <c r="I25">
-        <v>0.1955381803252791</v>
+        <v>0.2921110887293743</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>4.338567096155373</v>
+        <v>1.409246793406453</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.279039931572157</v>
+        <v>0.4359773767467487</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.6393547113121514</v>
+        <v>1.255862337557687</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_229/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_229/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02453504007225149</v>
+        <v>0.07680125192825926</v>
       </c>
       <c r="D2">
-        <v>0.02595913159737506</v>
+        <v>0.07582097821501321</v>
       </c>
       <c r="E2">
-        <v>0.1083956125688772</v>
+        <v>0.1650738501748918</v>
       </c>
       <c r="F2">
-        <v>0.4011173264326615</v>
+        <v>0.2604892826975771</v>
       </c>
       <c r="G2">
-        <v>0.2494694137112177</v>
+        <v>0.1590790573401506</v>
       </c>
       <c r="H2">
-        <v>0.4299996397747279</v>
+        <v>0.1524088315713215</v>
       </c>
       <c r="I2">
-        <v>0.294091890236551</v>
+        <v>0.1781528138123356</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.187768794381611</v>
+        <v>3.663225290276159</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3730441353413028</v>
+        <v>1.069141466457317</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.276956331357368</v>
+        <v>0.6072806497114414</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02138906953582875</v>
+        <v>0.0669133783789988</v>
       </c>
       <c r="D3">
-        <v>0.02290482479835276</v>
+        <v>0.06659852849519154</v>
       </c>
       <c r="E3">
-        <v>0.1051323248934608</v>
+        <v>0.1447095114630592</v>
       </c>
       <c r="F3">
-        <v>0.402784158121726</v>
+        <v>0.2434426238815064</v>
       </c>
       <c r="G3">
-        <v>0.2521603659494431</v>
+        <v>0.14985888910401</v>
       </c>
       <c r="H3">
-        <v>0.4354858015413043</v>
+        <v>0.1546725328546543</v>
       </c>
       <c r="I3">
-        <v>0.2960398840774836</v>
+        <v>0.1679059084732906</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.036841494584053</v>
+        <v>3.205661861154567</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3303842439551445</v>
+        <v>0.9278744222703992</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.293880245128435</v>
+        <v>0.5920915494560575</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0194513134007579</v>
+        <v>0.06084340425018553</v>
       </c>
       <c r="D4">
-        <v>0.02102014890999726</v>
+        <v>0.06092667056163492</v>
       </c>
       <c r="E4">
-        <v>0.1032786869389888</v>
+        <v>0.1327710625291836</v>
       </c>
       <c r="F4">
-        <v>0.4042073267939728</v>
+        <v>0.233893163137445</v>
       </c>
       <c r="G4">
-        <v>0.2541391123286942</v>
+        <v>0.1450518432771091</v>
       </c>
       <c r="H4">
-        <v>0.4391444145723113</v>
+        <v>0.156600474843323</v>
       </c>
       <c r="I4">
-        <v>0.2975333082031355</v>
+        <v>0.1622976567847161</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9437758093563389</v>
+        <v>2.924553281693477</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3041870526631314</v>
+        <v>0.8414827892272001</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.305562003549809</v>
+        <v>0.5856934834676935</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0186601686363872</v>
+        <v>0.05836945188224973</v>
       </c>
       <c r="D5">
-        <v>0.02024984000026819</v>
+        <v>0.05861257611343262</v>
       </c>
       <c r="E5">
-        <v>0.1025606987450729</v>
+        <v>0.1280351987377379</v>
       </c>
       <c r="F5">
-        <v>0.4048875532774616</v>
+        <v>0.2302182311098662</v>
       </c>
       <c r="G5">
-        <v>0.2550272263412197</v>
+        <v>0.1432938164324966</v>
       </c>
       <c r="H5">
-        <v>0.4407081995181557</v>
+        <v>0.1575152249924798</v>
       </c>
       <c r="I5">
-        <v>0.2982164714525162</v>
+        <v>0.160173707990733</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9057540600553011</v>
+        <v>2.809929729479848</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.293510857562616</v>
+        <v>0.8063461537747258</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.310646015819373</v>
+        <v>0.5837800554332659</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01852871077925045</v>
+        <v>0.05795861097062271</v>
       </c>
       <c r="D6">
-        <v>0.02012179422303007</v>
+        <v>0.05822814310476332</v>
       </c>
       <c r="E6">
-        <v>0.1024437252344832</v>
+        <v>0.1272562467306777</v>
       </c>
       <c r="F6">
-        <v>0.4050065535628775</v>
+        <v>0.2296206907705596</v>
       </c>
       <c r="G6">
-        <v>0.2551796250344438</v>
+        <v>0.1430136362143486</v>
       </c>
       <c r="H6">
-        <v>0.4409722638257847</v>
+        <v>0.1576747403202887</v>
       </c>
       <c r="I6">
-        <v>0.2983344091048608</v>
+        <v>0.1598304852679355</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8994348177621987</v>
+        <v>2.790891583994267</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.29173805576945</v>
+        <v>0.8005153681201023</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.311509730945886</v>
+        <v>0.5835030349390991</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01944064973363169</v>
+        <v>0.06081004212629182</v>
       </c>
       <c r="D7">
-        <v>0.0210097694457545</v>
+        <v>0.06089547363707482</v>
       </c>
       <c r="E7">
-        <v>0.1032688529852201</v>
+        <v>0.132706686722031</v>
       </c>
       <c r="F7">
-        <v>0.4042160948826279</v>
+        <v>0.2338427430682728</v>
       </c>
       <c r="G7">
-        <v>0.2541507591587973</v>
+        <v>0.1450273384385454</v>
       </c>
       <c r="H7">
-        <v>0.4391652093725753</v>
+        <v>0.1566122967362915</v>
       </c>
       <c r="I7">
-        <v>0.297542219859448</v>
+        <v>0.1622683720940792</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.943263422689455</v>
+        <v>2.923007746063263</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3040430718453493</v>
+        <v>0.8410086699925756</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.305629259244284</v>
+        <v>0.5856649236310147</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02345160506169464</v>
+        <v>0.07339122558943245</v>
       </c>
       <c r="D8">
-        <v>0.02490797291308411</v>
+        <v>0.07264271427153091</v>
       </c>
       <c r="E8">
-        <v>0.1072390839358945</v>
+        <v>0.1579268141234493</v>
       </c>
       <c r="F8">
-        <v>0.4016089410628041</v>
+        <v>0.2544125192835764</v>
       </c>
       <c r="G8">
-        <v>0.250329286590059</v>
+        <v>0.1557140793320499</v>
       </c>
       <c r="H8">
-        <v>0.4318310162744794</v>
+        <v>0.1530738704323298</v>
       </c>
       <c r="I8">
-        <v>0.2947017295349674</v>
+        <v>0.17447143680781</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.135812805101523</v>
+        <v>3.505473170115977</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3583359925045428</v>
+        <v>1.020349003204579</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.282523343268792</v>
+        <v>0.6014095241792603</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.03126693897377208</v>
+        <v>0.09810718432814269</v>
       </c>
       <c r="D9">
-        <v>0.03247633163179842</v>
+        <v>0.09562858692813592</v>
       </c>
       <c r="E9">
-        <v>0.1162311213030449</v>
+        <v>0.2124985476182459</v>
       </c>
       <c r="F9">
-        <v>0.3996793260392124</v>
+        <v>0.3026994291521987</v>
       </c>
       <c r="G9">
-        <v>0.2454413810785638</v>
+        <v>0.1841102911274817</v>
       </c>
       <c r="H9">
-        <v>0.4197537116403467</v>
+        <v>0.1506983807438189</v>
       </c>
       <c r="I9">
-        <v>0.2914996847947684</v>
+        <v>0.2043185307583855</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.510158282307771</v>
+        <v>4.647853688244425</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4647642679878174</v>
+        <v>1.375702404448518</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.24749143031687</v>
+        <v>0.6575385482886844</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.03697670434927147</v>
+        <v>0.116346006383651</v>
       </c>
       <c r="D10">
-        <v>0.03798822899842946</v>
+        <v>0.1125216079118729</v>
       </c>
       <c r="E10">
-        <v>0.123595882254655</v>
+        <v>0.2566560995281364</v>
       </c>
       <c r="F10">
-        <v>0.4002184817530861</v>
+        <v>0.344012575450833</v>
       </c>
       <c r="G10">
-        <v>0.2434604149440531</v>
+        <v>0.2104846156652016</v>
       </c>
       <c r="H10">
-        <v>0.4122902402783666</v>
+        <v>0.1521687325257659</v>
       </c>
       <c r="I10">
-        <v>0.2906034238119872</v>
+        <v>0.2305835604382338</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.783100990444893</v>
+        <v>5.489548328381545</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.542928115475334</v>
+        <v>1.640409800516721</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.228075076353932</v>
+        <v>0.7171508873033758</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.03956693825264779</v>
+        <v>0.1246734417752862</v>
       </c>
       <c r="D11">
-        <v>0.04048474807760272</v>
+        <v>0.1202166786078749</v>
       </c>
       <c r="E11">
-        <v>0.1271159174210226</v>
+        <v>0.2778573746575432</v>
       </c>
       <c r="F11">
-        <v>0.4008922072418315</v>
+        <v>0.3643098709450641</v>
       </c>
       <c r="G11">
-        <v>0.2429134581349217</v>
+        <v>0.2239123393610782</v>
       </c>
       <c r="H11">
-        <v>0.4092019933884927</v>
+        <v>0.1536392182338062</v>
       </c>
       <c r="I11">
-        <v>0.2905146210257001</v>
+        <v>0.2436472953826794</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.906794490720188</v>
+        <v>5.873538132452154</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5784801611955004</v>
+        <v>1.76195955459599</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.220626616020596</v>
+        <v>0.7489695737840378</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.04054672404106441</v>
+        <v>0.1278323186337786</v>
       </c>
       <c r="D12">
-        <v>0.04142850367013295</v>
+        <v>0.1231328583617142</v>
       </c>
       <c r="E12">
-        <v>0.1284736603205303</v>
+        <v>0.286067011240398</v>
       </c>
       <c r="F12">
-        <v>0.4012092107631773</v>
+        <v>0.3722332679845621</v>
       </c>
       <c r="G12">
-        <v>0.2427576386998922</v>
+        <v>0.2292236097250822</v>
       </c>
       <c r="H12">
-        <v>0.4080767735279451</v>
+        <v>0.1543206427403234</v>
       </c>
       <c r="I12">
-        <v>0.2905270625453795</v>
+        <v>0.2487701878540065</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.953564125171624</v>
+        <v>6.019152690640567</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5919418548917008</v>
+        <v>1.808180672849275</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.218006072339676</v>
+        <v>0.7617583289830208</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.04033575843199344</v>
+        <v>0.1271517373285462</v>
       </c>
       <c r="D13">
-        <v>0.04122532208874929</v>
+        <v>0.1225046956069917</v>
       </c>
       <c r="E13">
-        <v>0.1281801380232466</v>
+        <v>0.2842905065802839</v>
       </c>
       <c r="F13">
-        <v>0.4011381821154174</v>
+        <v>0.3705159199275982</v>
       </c>
       <c r="G13">
-        <v>0.2427889097217957</v>
+        <v>0.2280693110575527</v>
       </c>
       <c r="H13">
-        <v>0.4083171409784399</v>
+        <v>0.1541681892501003</v>
       </c>
       <c r="I13">
-        <v>0.2905223307708127</v>
+        <v>0.2476587972651814</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.943494624843765</v>
+        <v>5.987782021625321</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5890426927143722</v>
+        <v>1.798217046031681</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.218561541373575</v>
+        <v>0.7589700775204165</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.03964756773603995</v>
+        <v>0.1249332086715356</v>
       </c>
       <c r="D14">
-        <v>0.04056242426105428</v>
+        <v>0.1204565454752355</v>
       </c>
       <c r="E14">
-        <v>0.127227120961507</v>
+        <v>0.2785290283439181</v>
       </c>
       <c r="F14">
-        <v>0.4009170456627089</v>
+        <v>0.3649568529289695</v>
       </c>
       <c r="G14">
-        <v>0.2428996085197426</v>
+        <v>0.2243446367420674</v>
       </c>
       <c r="H14">
-        <v>0.4091085338399481</v>
+        <v>0.1536927268119683</v>
       </c>
       <c r="I14">
-        <v>0.2905147201030545</v>
+        <v>0.2440651398749552</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.91064368428556</v>
+        <v>5.885513512502314</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5795876868398153</v>
+        <v>1.765758147874976</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.220407007835377</v>
+        <v>0.7500065056153886</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.03922588902031521</v>
+        <v>0.1235750397352717</v>
       </c>
       <c r="D15">
-        <v>0.04015616722911375</v>
+        <v>0.1192023068279724</v>
       </c>
       <c r="E15">
-        <v>0.1266466088080449</v>
+        <v>0.2750242063522634</v>
       </c>
       <c r="F15">
-        <v>0.4007896594413083</v>
+        <v>0.3615833105807127</v>
       </c>
       <c r="G15">
-        <v>0.2429741065654412</v>
+        <v>0.222093306243984</v>
       </c>
       <c r="H15">
-        <v>0.4095990480295981</v>
+        <v>0.1534180048501739</v>
       </c>
       <c r="I15">
-        <v>0.2905160641316229</v>
+        <v>0.2418873130138621</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.890512279816164</v>
+        <v>5.822899413799917</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5737960694848141</v>
+        <v>1.745902184407683</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.221563487971352</v>
+        <v>0.7446143628519479</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.03680727806273865</v>
+        <v>0.1158024925010892</v>
       </c>
       <c r="D16">
-        <v>0.03782485182348694</v>
+        <v>0.1120189866523305</v>
       </c>
       <c r="E16">
-        <v>0.1233692874331069</v>
+        <v>0.2552947127996674</v>
       </c>
       <c r="F16">
-        <v>0.4001830967397595</v>
+        <v>0.3427181211018535</v>
       </c>
       <c r="G16">
-        <v>0.2435033187066011</v>
+        <v>0.20963760492387</v>
       </c>
       <c r="H16">
-        <v>0.4124982488623132</v>
+        <v>0.1520895440433989</v>
       </c>
       <c r="I16">
-        <v>0.2906156625909517</v>
+        <v>0.2297535649798377</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.775007633464497</v>
+        <v>5.464479805766871</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.540604572235452</v>
+        <v>1.632491539079382</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.228589787822301</v>
+        <v>0.7151713965679249</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.03532166803694281</v>
+        <v>0.1110428369241134</v>
       </c>
       <c r="D17">
-        <v>0.03639183912289923</v>
+        <v>0.1076154070779012</v>
       </c>
       <c r="E17">
-        <v>0.1214025015255373</v>
+        <v>0.2434909512039738</v>
       </c>
       <c r="F17">
-        <v>0.3999209193767399</v>
+        <v>0.3315445702502871</v>
       </c>
       <c r="G17">
-        <v>0.2439189538100877</v>
+        <v>0.2023770442181387</v>
       </c>
       <c r="H17">
-        <v>0.4143554943009065</v>
+        <v>0.1514863045554478</v>
       </c>
       <c r="I17">
-        <v>0.2907585938196036</v>
+        <v>0.2226063376471004</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.70402695281831</v>
+        <v>5.244915217000141</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5202411021548272</v>
+        <v>1.563228488052019</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.233255411479433</v>
+        <v>0.6983569812456096</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.03446651276718171</v>
+        <v>0.1083080113434391</v>
       </c>
       <c r="D18">
-        <v>0.03556658841002047</v>
+        <v>0.1050835111981741</v>
       </c>
       <c r="E18">
-        <v>0.120287215606993</v>
+        <v>0.2368052111470575</v>
       </c>
       <c r="F18">
-        <v>0.3998104348895737</v>
+        <v>0.3252580346696945</v>
       </c>
       <c r="G18">
-        <v>0.2441913327083256</v>
+        <v>0.1983342162652377</v>
       </c>
       <c r="H18">
-        <v>0.4154526160887784</v>
+        <v>0.1512141928291868</v>
       </c>
       <c r="I18">
-        <v>0.2908708090126808</v>
+        <v>0.218599458864297</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.663156721650296</v>
+        <v>5.118727773171315</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5085281160198463</v>
+        <v>1.523494921414226</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.236069177464572</v>
+        <v>0.6891241488674069</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.03417685802006076</v>
+        <v>0.1073824963434902</v>
       </c>
       <c r="D19">
-        <v>0.03528699936131829</v>
+        <v>0.1042263925128566</v>
       </c>
       <c r="E19">
-        <v>0.1199123283874712</v>
+        <v>0.2345586952771725</v>
       </c>
       <c r="F19">
-        <v>0.3997799423903956</v>
+        <v>0.3231529841692478</v>
       </c>
       <c r="G19">
-        <v>0.2442892664163807</v>
+        <v>0.1969876594775357</v>
       </c>
       <c r="H19">
-        <v>0.4158290404558045</v>
+        <v>0.1511346441824344</v>
       </c>
       <c r="I19">
-        <v>0.2909139500938771</v>
+        <v>0.2172602088971267</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.649311291672973</v>
+        <v>5.076018705297201</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5045622328857036</v>
+        <v>1.510058931054829</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.237044205914941</v>
+        <v>0.6860714938973587</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.03547988363133925</v>
+        <v>0.1115492128355697</v>
       </c>
       <c r="D20">
-        <v>0.03654449173413354</v>
+        <v>0.1080840746117531</v>
       </c>
       <c r="E20">
-        <v>0.1216102150457701</v>
+        <v>0.2447366265350368</v>
       </c>
       <c r="F20">
-        <v>0.3999446544250063</v>
+        <v>0.332719356638016</v>
       </c>
       <c r="G20">
-        <v>0.2438712579265996</v>
+        <v>0.2031360056380507</v>
       </c>
       <c r="H20">
-        <v>0.4141547973319604</v>
+        <v>0.1515427078455929</v>
       </c>
       <c r="I20">
-        <v>0.2907402716203933</v>
+        <v>0.2233562979599455</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.71158754452432</v>
+        <v>5.268277527332998</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5224088782311753</v>
+        <v>1.570590612366644</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.232745263133125</v>
+        <v>0.7001010872634765</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.03984973571370176</v>
+        <v>0.1255846872569606</v>
       </c>
       <c r="D21">
-        <v>0.04075717790924216</v>
+        <v>0.1210580703022544</v>
       </c>
       <c r="E21">
-        <v>0.1275063696526288</v>
+        <v>0.280216220346361</v>
       </c>
       <c r="F21">
-        <v>0.4009803173302871</v>
+        <v>0.3665830716940022</v>
       </c>
       <c r="G21">
-        <v>0.2428656983724551</v>
+        <v>0.2254323432956369</v>
       </c>
       <c r="H21">
-        <v>0.4088748813526024</v>
+        <v>0.1538289228681435</v>
       </c>
       <c r="I21">
-        <v>0.2905157035681611</v>
+        <v>0.2451157799944568</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.920294735667994</v>
+        <v>5.915546260047734</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5823648838380109</v>
+        <v>1.775286627419874</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.219859513077367</v>
+        <v>0.7526187170859373</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.04269937145713243</v>
+        <v>0.1347900489927696</v>
       </c>
       <c r="D22">
-        <v>0.04350093056825699</v>
+        <v>0.1295506735896055</v>
       </c>
       <c r="E22">
-        <v>0.1315044674942385</v>
+        <v>0.3044713472071336</v>
       </c>
       <c r="F22">
-        <v>0.4020179788831513</v>
+        <v>0.3901087200767677</v>
       </c>
       <c r="G22">
-        <v>0.2425076994561692</v>
+        <v>0.2413352163424776</v>
       </c>
       <c r="H22">
-        <v>0.4056820149454268</v>
+        <v>0.1560540916192181</v>
       </c>
       <c r="I22">
-        <v>0.290637558384212</v>
+        <v>0.2603703970901208</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.056285226371017</v>
+        <v>6.339799571308788</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6215430545728822</v>
+        <v>1.910207254955679</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.212604293981812</v>
+        <v>0.7912866553740798</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.04117906120801251</v>
+        <v>0.1298736374209852</v>
       </c>
       <c r="D23">
-        <v>0.04203742500693863</v>
+        <v>0.1250165306823163</v>
       </c>
       <c r="E23">
-        <v>0.1293572525543496</v>
+        <v>0.2914208407600398</v>
       </c>
       <c r="F23">
-        <v>0.4014310591848727</v>
+        <v>0.3774177641213186</v>
       </c>
       <c r="G23">
-        <v>0.2426712728896234</v>
+        <v>0.2327184727486582</v>
       </c>
       <c r="H23">
-        <v>0.4073624813374863</v>
+        <v>0.1547963319031709</v>
       </c>
       <c r="I23">
-        <v>0.290547874108519</v>
+        <v>0.2521287279848963</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.98374316379784</v>
+        <v>6.113238479614893</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6006336454195633</v>
+        <v>1.838082696854812</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.216369493083036</v>
+        <v>0.7702290053750431</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.03540835765370787</v>
+        <v>0.1113202754947906</v>
       </c>
       <c r="D24">
-        <v>0.03647548182216553</v>
+        <v>0.107872190757405</v>
       </c>
       <c r="E24">
-        <v>0.1215162596814281</v>
+        <v>0.2441731455610068</v>
       </c>
       <c r="F24">
-        <v>0.3999337984703573</v>
+        <v>0.3321878096629263</v>
       </c>
       <c r="G24">
-        <v>0.2438927171477445</v>
+        <v>0.2027924715665321</v>
       </c>
       <c r="H24">
-        <v>0.414245440962155</v>
+        <v>0.1515169759444035</v>
       </c>
       <c r="I24">
-        <v>0.2907484615233678</v>
+        <v>0.2230169238645345</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.708169595454592</v>
+        <v>5.257715295962896</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5214288445732365</v>
+        <v>1.567261928194455</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.232975491856493</v>
+        <v>0.6993112298876412</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.02915821729381207</v>
+        <v>0.0914108656324828</v>
       </c>
       <c r="D25">
-        <v>0.03043726019056692</v>
+        <v>0.08941215101932443</v>
       </c>
       <c r="E25">
-        <v>0.1136670203445149</v>
+        <v>0.1970947634688756</v>
       </c>
       <c r="F25">
-        <v>0.399858872300122</v>
+        <v>0.2886870186274564</v>
       </c>
       <c r="G25">
-        <v>0.2464824704359856</v>
+        <v>0.1755349443522007</v>
       </c>
       <c r="H25">
-        <v>0.4227737053531726</v>
+        <v>0.1508094117967858</v>
       </c>
       <c r="I25">
-        <v>0.2921110887293743</v>
+        <v>0.1955381803252649</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.409246793406453</v>
+        <v>4.338567096155316</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4359773767467487</v>
+        <v>1.279039931572157</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.255862337557687</v>
+        <v>0.6393547113121514</v>
       </c>
     </row>
   </sheetData>
